--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_13_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_13_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510222.9155652304</v>
+        <v>541182.7465803222</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1767308.885438206</v>
+        <v>1781550.115583401</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24011445.17803244</v>
+        <v>24017313.31977735</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4766244.889499538</v>
+        <v>4760421.143474382</v>
       </c>
     </row>
     <row r="11">
@@ -7985,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>89.35872216232903</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N2" t="n">
-        <v>83.98878642167108</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8061,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>38.8718120156598</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M3" t="n">
-        <v>16.76619772104769</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29.09636626239171</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P3" t="n">
-        <v>51.91261060228356</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8222,13 +8224,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>82.51983503065316</v>
+        <v>90.31173819920292</v>
       </c>
       <c r="N5" t="n">
-        <v>77.03923894636836</v>
+        <v>84.95722325436918</v>
       </c>
       <c r="O5" t="n">
-        <v>92.44578651335061</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P5" t="n">
         <v>83.66766412458549</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>34.34712175535</v>
+        <v>39.50233892697406</v>
       </c>
       <c r="M6" t="n">
-        <v>11.48609760311825</v>
+        <v>17.50199288651834</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>24.13826359496363</v>
+        <v>29.7872902773006</v>
       </c>
       <c r="P6" t="n">
-        <v>47.93329609762</v>
+        <v>52.46713803718507</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8456,16 +8458,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L8" t="n">
-        <v>102.8381142892153</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>67.64282070579191</v>
+        <v>74.04503350661616</v>
       </c>
       <c r="N8" t="n">
-        <v>61.92149897629116</v>
+        <v>68.42730627354024</v>
       </c>
       <c r="O8" t="n">
-        <v>78.17053334824146</v>
+        <v>84.31378269605855</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8535,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>24.50430953720272</v>
+        <v>28.74009079028824</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4.94295693345623</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.35262508576585</v>
+        <v>17.99414464209616</v>
       </c>
       <c r="P9" t="n">
-        <v>39.27687031530112</v>
+        <v>43.00209896284861</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8690,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>84.27780726850281</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L11" t="n">
-        <v>50.04010588902617</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M11" t="n">
-        <v>8.894863273479075</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N11" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>21.79887523416346</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P11" t="n">
-        <v>69.5722233101028</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>40.20975561493427</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>5.093443300258059</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8927,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L14" t="n">
-        <v>50.04010588902617</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M14" t="n">
-        <v>8.894863273479132</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N14" t="n">
-        <v>2.222938173625039</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>21.79887523416352</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P14" t="n">
-        <v>69.57222331010286</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>40.20975561493429</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>5.093443300258059</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9164,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L17" t="n">
-        <v>50.04010588902617</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M17" t="n">
-        <v>8.894863273479075</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N17" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>21.79887523416346</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P17" t="n">
-        <v>69.5722233101028</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9243,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>40.20975561493427</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>5.093443300258059</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9401,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L20" t="n">
-        <v>50.04010588902617</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M20" t="n">
-        <v>8.894863273479075</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N20" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>21.79887523416346</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P20" t="n">
-        <v>69.5722233101028</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9480,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>40.20975561493427</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>5.093443300258059</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9638,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>84.27780726850281</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L23" t="n">
-        <v>50.04010588902617</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M23" t="n">
-        <v>8.894863273479075</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N23" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>21.79887523416346</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P23" t="n">
-        <v>69.5722233101028</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>40.20975561493427</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>5.093443300258059</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9875,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>84.27780726850281</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L26" t="n">
-        <v>50.04010588902617</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M26" t="n">
-        <v>8.894863273479075</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N26" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>21.79887523416346</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P26" t="n">
-        <v>69.5722233101028</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9954,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>40.20975561493427</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>5.093443300258059</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10112,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>84.27780726850281</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L29" t="n">
-        <v>50.04010588902617</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M29" t="n">
-        <v>8.894863273479075</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N29" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>21.79887523416346</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P29" t="n">
-        <v>69.5722233101028</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10191,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>40.20975561493427</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>5.093443300258059</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10349,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>84.27780726850281</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L32" t="n">
-        <v>50.04010588902617</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M32" t="n">
-        <v>8.894863273479075</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N32" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>21.79887523416346</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P32" t="n">
-        <v>69.5722233101028</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10428,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>40.20975561493427</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>5.093443300258059</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10586,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850281</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L35" t="n">
-        <v>50.04010588902617</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M35" t="n">
-        <v>8.894863273479075</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N35" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>21.79887523416346</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P35" t="n">
-        <v>69.5722233101028</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10665,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>40.20975561493427</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>5.093443300258059</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10823,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L38" t="n">
-        <v>50.04010588902617</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M38" t="n">
-        <v>8.894863273479075</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N38" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>21.79887523416346</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P38" t="n">
-        <v>69.5722233101028</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10902,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>40.20975561493427</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>5.093443300258059</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11060,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>84.27780726850281</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L41" t="n">
-        <v>50.04010588902617</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M41" t="n">
-        <v>8.894863273479075</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N41" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>21.79887523416346</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P41" t="n">
-        <v>69.5722233101028</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>40.20975561493427</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>5.093443300258059</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11297,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L44" t="n">
-        <v>50.04010588902617</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M44" t="n">
-        <v>8.894863273479075</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N44" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>21.79887523416346</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P44" t="n">
-        <v>69.5722233101028</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>40.20975561493427</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>5.093443300258059</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22559,22 +22561,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.180569077725</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H2" t="n">
-        <v>349.6598249464623</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I2" t="n">
-        <v>253.2845231898766</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J2" t="n">
-        <v>101.17202184758</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K2" t="n">
-        <v>58.29051612840928</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L2" t="n">
-        <v>13.76272976322227</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22583,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P2" t="n">
-        <v>51.80080109985099</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q2" t="n">
-        <v>117.6935628343943</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R2" t="n">
-        <v>209.6584962505987</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S2" t="n">
-        <v>235.2672937814706</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T2" t="n">
-        <v>219.3436445631938</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U2" t="n">
-        <v>248.788833337017</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22638,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0149653106349</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H3" t="n">
-        <v>137.7503459159327</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I3" t="n">
-        <v>116.9507599882392</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J3" t="n">
-        <v>81.45811026959613</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K3" t="n">
-        <v>11.04044456262879</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22668,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.82637802552915</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R3" t="n">
-        <v>154.3921839405207</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S3" t="n">
-        <v>208.0224770741423</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T3" t="n">
-        <v>230.0952907293151</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6495544029776</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22717,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.2343807020206</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H4" t="n">
-        <v>167.5776180378764</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I4" t="n">
-        <v>167.7355108777182</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J4" t="n">
-        <v>132.2802453397308</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K4" t="n">
-        <v>87.46423987719797</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L4" t="n">
-        <v>61.01644271081538</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M4" t="n">
-        <v>57.6471651877402</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N4" t="n">
-        <v>45.30505538511905</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O4" t="n">
-        <v>70.7260729557852</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P4" t="n">
-        <v>89.84907843621555</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.6385858692978</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R4" t="n">
-        <v>221.05342233419</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S4" t="n">
-        <v>243.6919922925021</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T4" t="n">
-        <v>218.0866353446397</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U4" t="n">
-        <v>291.219579948833</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22796,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.1416213105004</v>
+        <v>422.1859965465589</v>
       </c>
       <c r="H5" t="n">
-        <v>349.2609511253734</v>
+        <v>349.7154090116571</v>
       </c>
       <c r="I5" t="n">
-        <v>251.7829893939503</v>
+        <v>253.493765682094</v>
       </c>
       <c r="J5" t="n">
-        <v>97.8663787891014</v>
+        <v>101.632671480518</v>
       </c>
       <c r="K5" t="n">
-        <v>53.33621408331356</v>
+        <v>58.98091051708468</v>
       </c>
       <c r="L5" t="n">
-        <v>7.616479986926805</v>
+        <v>14.61922505122197</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22820,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.9144674394813705</v>
       </c>
       <c r="P5" t="n">
-        <v>46.20006348824504</v>
+        <v>52.5812779024964</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.4876421365192</v>
+        <v>118.279668409427</v>
       </c>
       <c r="R5" t="n">
-        <v>207.2119435676767</v>
+        <v>209.9994294897338</v>
       </c>
       <c r="S5" t="n">
-        <v>234.3797715358402</v>
+        <v>235.3909722275223</v>
       </c>
       <c r="T5" t="n">
-        <v>219.1731507121682</v>
+        <v>219.367403308014</v>
       </c>
       <c r="U5" t="n">
-        <v>248.785717515639</v>
+        <v>248.7892675345237</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22875,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>160.9941264180109</v>
+        <v>161.0178692624737</v>
       </c>
       <c r="H6" t="n">
-        <v>137.5490860845379</v>
+        <v>137.7783919771127</v>
       </c>
       <c r="I6" t="n">
-        <v>116.2332805711413</v>
+        <v>117.0507425405837</v>
       </c>
       <c r="J6" t="n">
-        <v>79.48929190988835</v>
+        <v>81.7324700352081</v>
       </c>
       <c r="K6" t="n">
-        <v>7.675420397113669</v>
+        <v>11.50936910144016</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22905,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>51.16631166180717</v>
+        <v>54.19706493042543</v>
       </c>
       <c r="R6" t="n">
-        <v>153.0983446247961</v>
+        <v>154.5724836871435</v>
       </c>
       <c r="S6" t="n">
-        <v>207.6354037835169</v>
+        <v>208.0764167058849</v>
       </c>
       <c r="T6" t="n">
-        <v>230.0112953682561</v>
+        <v>230.1069956930864</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6481834231997</v>
+        <v>249.6497454524407</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22954,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2169100744685</v>
+        <v>169.2368152776922</v>
       </c>
       <c r="H7" t="n">
-        <v>167.4222882765488</v>
+        <v>167.5992636288474</v>
       </c>
       <c r="I7" t="n">
-        <v>167.2101214600581</v>
+        <v>167.8087252079146</v>
       </c>
       <c r="J7" t="n">
-        <v>131.0450719717917</v>
+        <v>132.4523698397117</v>
       </c>
       <c r="K7" t="n">
-        <v>85.43447060340827</v>
+        <v>87.74709330522369</v>
       </c>
       <c r="L7" t="n">
-        <v>58.41903686546665</v>
+        <v>61.37839771566142</v>
       </c>
       <c r="M7" t="n">
-        <v>54.90856490699248</v>
+        <v>58.02879599051386</v>
       </c>
       <c r="N7" t="n">
-        <v>42.63157289797492</v>
+        <v>45.67761186038953</v>
       </c>
       <c r="O7" t="n">
-        <v>68.2566791632279</v>
+        <v>71.07018916071037</v>
       </c>
       <c r="P7" t="n">
-        <v>87.73608544572274</v>
+        <v>90.14352929744044</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.1756590476329</v>
+        <v>151.8424483830337</v>
       </c>
       <c r="R7" t="n">
-        <v>220.2678793898892</v>
+        <v>221.1628897093868</v>
       </c>
       <c r="S7" t="n">
-        <v>243.3875269014336</v>
+        <v>243.7344203067059</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0119881178259</v>
+        <v>218.0970376225092</v>
       </c>
       <c r="U7" t="n">
-        <v>291.218627005512</v>
+        <v>291.2197127438696</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23033,19 +23035,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.0568960504157</v>
+        <v>422.0933569378507</v>
       </c>
       <c r="H8" t="n">
-        <v>348.3932585555301</v>
+        <v>348.766663618974</v>
       </c>
       <c r="I8" t="n">
-        <v>248.5166188045319</v>
+        <v>249.9222771673705</v>
       </c>
       <c r="J8" t="n">
-        <v>90.67542824598098</v>
+        <v>93.77000049091893</v>
       </c>
       <c r="K8" t="n">
-        <v>42.5588432808045</v>
+        <v>47.19680489086682</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -23060,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>34.01646518147888</v>
+        <v>39.2595863707439</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.3382672065391</v>
+        <v>108.2756328645375</v>
       </c>
       <c r="R8" t="n">
-        <v>201.8898204488763</v>
+        <v>204.1801566692163</v>
       </c>
       <c r="S8" t="n">
-        <v>232.4490946716583</v>
+        <v>233.2799471440838</v>
       </c>
       <c r="T8" t="n">
-        <v>218.802265886147</v>
+        <v>218.9618734208938</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7818563658271</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23112,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.948794407391</v>
+        <v>160.968302702022</v>
       </c>
       <c r="H9" t="n">
-        <v>137.1112742977616</v>
+        <v>137.2996833538022</v>
       </c>
       <c r="I9" t="n">
-        <v>114.6725073984828</v>
+        <v>115.3441745601174</v>
       </c>
       <c r="J9" t="n">
-        <v>75.2064110293488</v>
+        <v>77.04951705849162</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3552948050415807</v>
+        <v>3.505456574455792</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>45.37972027109998</v>
+        <v>47.86993696819728</v>
       </c>
       <c r="R9" t="n">
-        <v>150.2837834742034</v>
+        <v>151.4950089952352</v>
       </c>
       <c r="S9" t="n">
-        <v>206.7933815687133</v>
+        <v>207.155739585213</v>
       </c>
       <c r="T9" t="n">
-        <v>229.8285755535207</v>
+        <v>229.9072076709146</v>
       </c>
       <c r="U9" t="n">
-        <v>249.64520105408</v>
+        <v>249.6464844945162</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23191,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1789052395657</v>
+        <v>169.1952603384582</v>
       </c>
       <c r="H10" t="n">
-        <v>167.0843907444132</v>
+        <v>167.229802441839</v>
       </c>
       <c r="I10" t="n">
-        <v>166.0672124249817</v>
+        <v>166.5590548534935</v>
       </c>
       <c r="J10" t="n">
-        <v>128.3581301441649</v>
+        <v>129.5144356358626</v>
       </c>
       <c r="K10" t="n">
-        <v>81.01899978470318</v>
+        <v>82.91916491057385</v>
       </c>
       <c r="L10" t="n">
-        <v>52.76875441092022</v>
+        <v>55.200311568079</v>
       </c>
       <c r="M10" t="n">
-        <v>48.95113428673177</v>
+        <v>51.51487037948513</v>
       </c>
       <c r="N10" t="n">
-        <v>36.81579666235183</v>
+        <v>39.31857284105145</v>
       </c>
       <c r="O10" t="n">
-        <v>62.88486849896913</v>
+        <v>65.19658738606127</v>
       </c>
       <c r="P10" t="n">
-        <v>83.13957341348075</v>
+        <v>85.11764828316647</v>
       </c>
       <c r="Q10" t="n">
-        <v>146.9932723722735</v>
+        <v>148.3627888804421</v>
       </c>
       <c r="R10" t="n">
-        <v>218.5590438132605</v>
+        <v>219.2944285325528</v>
       </c>
       <c r="S10" t="n">
-        <v>242.7252062786279</v>
+        <v>243.0102310475085</v>
       </c>
       <c r="T10" t="n">
-        <v>217.8496038232412</v>
+        <v>217.9194847003273</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2174461108205</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23270,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H11" t="n">
-        <v>344.9668206262274</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I11" t="n">
-        <v>235.6180226107624</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J11" t="n">
-        <v>62.27902778684214</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.2082294730605</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R11" t="n">
-        <v>180.8732471227138</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S11" t="n">
-        <v>224.8250298051639</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3376759156334</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H12" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I12" t="n">
-        <v>108.5091580928627</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J12" t="n">
-        <v>58.29370945070387</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.52900457800858</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R12" t="n">
-        <v>139.1693410830749</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S12" t="n">
-        <v>203.4683135038341</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T12" t="n">
-        <v>229.1070318577418</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U12" t="n">
-        <v>249.633423953496</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.028827651796</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I13" t="n">
-        <v>161.5539700582341</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J13" t="n">
-        <v>117.7476446888457</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K13" t="n">
-        <v>63.58271276927572</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L13" t="n">
-        <v>30.45631013468386</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M13" t="n">
-        <v>25.42579023297466</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N13" t="n">
-        <v>13.84983270846368</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O13" t="n">
-        <v>41.67208363857272</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P13" t="n">
-        <v>64.98837134358662</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q13" t="n">
-        <v>134.42632090912</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R13" t="n">
-        <v>211.8110097304511</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S13" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T13" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2083679642753</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H14" t="n">
-        <v>344.9668206262274</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I14" t="n">
-        <v>235.6180226107624</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J14" t="n">
-        <v>62.27902778684216</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.2082294730605</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R14" t="n">
-        <v>180.8732471227138</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S14" t="n">
-        <v>224.8250298051639</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3376759156334</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H15" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I15" t="n">
-        <v>108.5091580928627</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J15" t="n">
-        <v>58.29370945070387</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.5290045780086</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R15" t="n">
-        <v>139.169341083075</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S15" t="n">
-        <v>203.4683135038341</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T15" t="n">
-        <v>229.1070318577418</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U15" t="n">
-        <v>249.633423953496</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.028827651796</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I16" t="n">
-        <v>161.5539700582341</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J16" t="n">
-        <v>117.7476446888457</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K16" t="n">
-        <v>63.58271276927572</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L16" t="n">
-        <v>30.45631013468387</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M16" t="n">
-        <v>25.42579023297466</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N16" t="n">
-        <v>13.84983270846368</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O16" t="n">
-        <v>41.67208363857273</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P16" t="n">
-        <v>64.98837134358664</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q16" t="n">
-        <v>134.42632090912</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R16" t="n">
-        <v>211.8110097304511</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S16" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T16" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2083679642753</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H17" t="n">
-        <v>344.9668206262274</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I17" t="n">
-        <v>235.6180226107624</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J17" t="n">
-        <v>62.27902778684214</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.2082294730605</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R17" t="n">
-        <v>180.8732471227138</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S17" t="n">
-        <v>224.8250298051639</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3376759156334</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H18" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I18" t="n">
-        <v>108.5091580928627</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J18" t="n">
-        <v>58.29370945070387</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.52900457800858</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R18" t="n">
-        <v>139.1693410830749</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S18" t="n">
-        <v>203.4683135038341</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T18" t="n">
-        <v>229.1070318577418</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U18" t="n">
-        <v>249.633423953496</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.028827651796</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H19" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I19" t="n">
-        <v>161.5539700582341</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J19" t="n">
-        <v>117.7476446888457</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K19" t="n">
-        <v>63.58271276927572</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L19" t="n">
-        <v>30.45631013468386</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M19" t="n">
-        <v>25.42579023297466</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N19" t="n">
-        <v>13.84983270846368</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O19" t="n">
-        <v>41.67208363857272</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P19" t="n">
-        <v>64.98837134358662</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.42632090912</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R19" t="n">
-        <v>211.8110097304511</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S19" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T19" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2083679642753</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,16 +23983,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H20" t="n">
-        <v>344.9668206262274</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I20" t="n">
-        <v>235.6180226107624</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J20" t="n">
-        <v>62.27902778684214</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.2082294730605</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R20" t="n">
-        <v>180.8732471227138</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S20" t="n">
-        <v>224.8250298051639</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3376759156334</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I21" t="n">
-        <v>108.5091580928627</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J21" t="n">
-        <v>58.29370945070387</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.52900457800858</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R21" t="n">
-        <v>139.1693410830749</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S21" t="n">
-        <v>203.4683135038341</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T21" t="n">
-        <v>229.1070318577418</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U21" t="n">
-        <v>249.633423953496</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.028827651796</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H22" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I22" t="n">
-        <v>161.5539700582341</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J22" t="n">
-        <v>117.7476446888457</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K22" t="n">
-        <v>63.58271276927572</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L22" t="n">
-        <v>30.45631013468386</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M22" t="n">
-        <v>25.42579023297466</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N22" t="n">
-        <v>13.84983270846368</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O22" t="n">
-        <v>41.67208363857272</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P22" t="n">
-        <v>64.98837134358662</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q22" t="n">
-        <v>134.42632090912</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R22" t="n">
-        <v>211.8110097304511</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S22" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T22" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2083679642753</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,16 +24220,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H23" t="n">
-        <v>344.9668206262274</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I23" t="n">
-        <v>235.6180226107624</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J23" t="n">
-        <v>62.27902778684214</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.2082294730605</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R23" t="n">
-        <v>180.8732471227138</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S23" t="n">
-        <v>224.8250298051639</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3376759156334</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I24" t="n">
-        <v>108.5091580928627</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J24" t="n">
-        <v>58.29370945070387</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.52900457800858</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R24" t="n">
-        <v>139.1693410830749</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S24" t="n">
-        <v>203.4683135038341</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T24" t="n">
-        <v>229.1070318577418</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U24" t="n">
-        <v>249.633423953496</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.028827651796</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H25" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I25" t="n">
-        <v>161.5539700582341</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J25" t="n">
-        <v>117.7476446888457</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K25" t="n">
-        <v>63.58271276927572</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L25" t="n">
-        <v>30.45631013468386</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M25" t="n">
-        <v>25.42579023297466</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N25" t="n">
-        <v>13.84983270846368</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O25" t="n">
-        <v>41.67208363857272</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P25" t="n">
-        <v>64.98837134358662</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q25" t="n">
-        <v>134.42632090912</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R25" t="n">
-        <v>211.8110097304511</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S25" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T25" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2083679642753</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,16 +24457,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H26" t="n">
-        <v>344.9668206262274</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I26" t="n">
-        <v>235.6180226107624</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J26" t="n">
-        <v>62.27902778684214</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.2082294730605</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R26" t="n">
-        <v>180.8732471227138</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S26" t="n">
-        <v>224.8250298051639</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3376759156334</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I27" t="n">
-        <v>108.5091580928627</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J27" t="n">
-        <v>58.29370945070387</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.52900457800858</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R27" t="n">
-        <v>139.1693410830749</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S27" t="n">
-        <v>203.4683135038341</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T27" t="n">
-        <v>229.1070318577418</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U27" t="n">
-        <v>249.633423953496</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.028827651796</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I28" t="n">
-        <v>161.5539700582341</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J28" t="n">
-        <v>117.7476446888457</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K28" t="n">
-        <v>63.58271276927572</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L28" t="n">
-        <v>30.45631013468386</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M28" t="n">
-        <v>25.42579023297466</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N28" t="n">
-        <v>13.84983270846368</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O28" t="n">
-        <v>41.67208363857272</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P28" t="n">
-        <v>64.98837134358662</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q28" t="n">
-        <v>134.42632090912</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R28" t="n">
-        <v>211.8110097304511</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S28" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T28" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2083679642753</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,16 +24694,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H29" t="n">
-        <v>344.9668206262274</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I29" t="n">
-        <v>235.6180226107624</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J29" t="n">
-        <v>62.27902778684214</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.2082294730605</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R29" t="n">
-        <v>180.8732471227138</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S29" t="n">
-        <v>224.8250298051639</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3376759156334</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I30" t="n">
-        <v>108.5091580928627</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J30" t="n">
-        <v>58.29370945070387</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.52900457800858</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R30" t="n">
-        <v>139.1693410830749</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S30" t="n">
-        <v>203.4683135038341</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T30" t="n">
-        <v>229.1070318577418</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U30" t="n">
-        <v>249.633423953496</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.028827651796</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I31" t="n">
-        <v>161.5539700582341</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J31" t="n">
-        <v>117.7476446888457</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K31" t="n">
-        <v>63.58271276927572</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L31" t="n">
-        <v>30.45631013468386</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M31" t="n">
-        <v>25.42579023297466</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N31" t="n">
-        <v>13.84983270846368</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O31" t="n">
-        <v>41.67208363857272</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P31" t="n">
-        <v>64.98837134358662</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q31" t="n">
-        <v>134.42632090912</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R31" t="n">
-        <v>211.8110097304511</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S31" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T31" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2083679642753</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,16 +24931,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H32" t="n">
-        <v>344.9668206262274</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I32" t="n">
-        <v>235.6180226107624</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J32" t="n">
-        <v>62.27902778684214</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>68.2082294730605</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R32" t="n">
-        <v>180.8732471227138</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S32" t="n">
-        <v>224.8250298051639</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3376759156334</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I33" t="n">
-        <v>108.5091580928627</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J33" t="n">
-        <v>58.29370945070387</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.52900457800858</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R33" t="n">
-        <v>139.1693410830749</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S33" t="n">
-        <v>203.4683135038341</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T33" t="n">
-        <v>229.1070318577418</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U33" t="n">
-        <v>249.633423953496</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.028827651796</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I34" t="n">
-        <v>161.5539700582341</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J34" t="n">
-        <v>117.7476446888457</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K34" t="n">
-        <v>63.58271276927572</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L34" t="n">
-        <v>30.45631013468386</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M34" t="n">
-        <v>25.42579023297466</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N34" t="n">
-        <v>13.84983270846368</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O34" t="n">
-        <v>41.67208363857272</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P34" t="n">
-        <v>64.98837134358662</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q34" t="n">
-        <v>134.42632090912</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R34" t="n">
-        <v>211.8110097304511</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S34" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T34" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2083679642753</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,16 +25168,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H35" t="n">
-        <v>344.9668206262274</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I35" t="n">
-        <v>235.6180226107624</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J35" t="n">
-        <v>62.27902778684214</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.2082294730605</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R35" t="n">
-        <v>180.8732471227138</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S35" t="n">
-        <v>224.8250298051639</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3376759156334</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I36" t="n">
-        <v>108.5091580928627</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J36" t="n">
-        <v>58.29370945070387</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.52900457800858</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R36" t="n">
-        <v>139.1693410830749</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S36" t="n">
-        <v>203.4683135038341</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T36" t="n">
-        <v>229.1070318577418</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U36" t="n">
-        <v>249.633423953496</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.028827651796</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I37" t="n">
-        <v>161.5539700582341</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J37" t="n">
-        <v>117.7476446888457</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K37" t="n">
-        <v>63.58271276927572</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L37" t="n">
-        <v>30.45631013468386</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M37" t="n">
-        <v>25.42579023297466</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N37" t="n">
-        <v>13.84983270846368</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O37" t="n">
-        <v>41.67208363857272</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P37" t="n">
-        <v>64.98837134358662</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q37" t="n">
-        <v>134.42632090912</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R37" t="n">
-        <v>211.8110097304511</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S37" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2083679642753</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,16 +25405,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H38" t="n">
-        <v>344.9668206262274</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I38" t="n">
-        <v>235.6180226107624</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J38" t="n">
-        <v>62.27902778684214</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.2082294730605</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R38" t="n">
-        <v>180.8732471227138</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S38" t="n">
-        <v>224.8250298051639</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3376759156334</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H39" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I39" t="n">
-        <v>108.5091580928627</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J39" t="n">
-        <v>58.29370945070387</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.52900457800858</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R39" t="n">
-        <v>139.1693410830749</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S39" t="n">
-        <v>203.4683135038341</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T39" t="n">
-        <v>229.1070318577418</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U39" t="n">
-        <v>249.633423953496</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.028827651796</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I40" t="n">
-        <v>161.5539700582341</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J40" t="n">
-        <v>117.7476446888457</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K40" t="n">
-        <v>63.58271276927572</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L40" t="n">
-        <v>30.45631013468386</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M40" t="n">
-        <v>25.42579023297466</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N40" t="n">
-        <v>13.84983270846368</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O40" t="n">
-        <v>41.67208363857272</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P40" t="n">
-        <v>64.98837134358662</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q40" t="n">
-        <v>134.42632090912</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R40" t="n">
-        <v>211.8110097304511</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S40" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T40" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2083679642753</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,16 +25642,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H41" t="n">
-        <v>344.9668206262274</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I41" t="n">
-        <v>235.6180226107624</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J41" t="n">
-        <v>62.27902778684214</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.2082294730605</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R41" t="n">
-        <v>180.8732471227138</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S41" t="n">
-        <v>224.8250298051639</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3376759156334</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H42" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I42" t="n">
-        <v>108.5091580928627</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J42" t="n">
-        <v>58.29370945070387</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.52900457800858</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R42" t="n">
-        <v>139.1693410830749</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S42" t="n">
-        <v>203.4683135038341</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T42" t="n">
-        <v>229.1070318577418</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U42" t="n">
-        <v>249.633423953496</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.028827651796</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I43" t="n">
-        <v>161.5539700582341</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J43" t="n">
-        <v>117.7476446888457</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K43" t="n">
-        <v>63.58271276927572</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L43" t="n">
-        <v>30.45631013468386</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M43" t="n">
-        <v>25.42579023297466</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N43" t="n">
-        <v>13.84983270846368</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O43" t="n">
-        <v>41.67208363857272</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P43" t="n">
-        <v>64.98837134358662</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q43" t="n">
-        <v>134.42632090912</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R43" t="n">
-        <v>211.8110097304511</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S43" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T43" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2083679642753</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,16 +25879,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H44" t="n">
-        <v>344.9668206262274</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I44" t="n">
-        <v>235.6180226107624</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J44" t="n">
-        <v>62.27902778684214</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.2082294730605</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R44" t="n">
-        <v>180.8732471227138</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S44" t="n">
-        <v>224.8250298051639</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3376759156334</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3823959320322</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I45" t="n">
-        <v>108.5091580928627</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J45" t="n">
-        <v>58.29370945070387</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.52900457800858</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R45" t="n">
-        <v>139.1693410830749</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S45" t="n">
-        <v>203.4683135038341</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T45" t="n">
-        <v>229.1070318577418</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U45" t="n">
-        <v>249.633423953496</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.028827651796</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7500645549697</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I46" t="n">
-        <v>161.5539700582341</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J46" t="n">
-        <v>117.7476446888457</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K46" t="n">
-        <v>63.58271276927572</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L46" t="n">
-        <v>30.45631013468386</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M46" t="n">
-        <v>25.42579023297466</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N46" t="n">
-        <v>13.84983270846368</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O46" t="n">
-        <v>41.67208363857272</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P46" t="n">
-        <v>64.98837134358662</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q46" t="n">
-        <v>134.42632090912</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R46" t="n">
-        <v>211.8110097304511</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S46" t="n">
-        <v>240.1097632263137</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T46" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2083679642753</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>388647.7122279025</v>
+        <v>385469.4037258088</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>392038.600450537</v>
+        <v>388058.7168949114</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>398682.1854168262</v>
+        <v>396240.6152116696</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418580.2772894789</v>
+        <v>418976.5814606532</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418580.2772894789</v>
+        <v>418976.5814606532</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>418580.2772894789</v>
+        <v>418976.5814606532</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>418580.2772894789</v>
+        <v>418976.5814606532</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>418580.2772894789</v>
+        <v>418976.5814606532</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>418580.2772894789</v>
+        <v>418976.5814606532</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>418580.2772894789</v>
+        <v>418976.5814606532</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>418580.2772894789</v>
+        <v>418976.5814606532</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>418580.2772894789</v>
+        <v>418976.5814606532</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>418580.2772894789</v>
+        <v>418976.5814606532</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418580.2772894789</v>
+        <v>418976.5814606532</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418580.2772894789</v>
+        <v>418976.5814606532</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136034.206753663</v>
+        <v>134677.8492186443</v>
       </c>
       <c r="C2" t="n">
-        <v>137589.8329935322</v>
+        <v>135782.850330123</v>
       </c>
       <c r="D2" t="n">
-        <v>140756.3226722937</v>
+        <v>139517.5769926123</v>
       </c>
       <c r="E2" t="n">
-        <v>151015.3255180763</v>
+        <v>151289.2537636241</v>
       </c>
       <c r="F2" t="n">
-        <v>151015.3255180762</v>
+        <v>151289.2537636241</v>
       </c>
       <c r="G2" t="n">
-        <v>151015.3255180763</v>
+        <v>151289.2537636241</v>
       </c>
       <c r="H2" t="n">
-        <v>151015.3255180763</v>
+        <v>151289.2537636241</v>
       </c>
       <c r="I2" t="n">
-        <v>151015.3255180763</v>
+        <v>151289.2537636241</v>
       </c>
       <c r="J2" t="n">
-        <v>151015.3255180763</v>
+        <v>151289.2537636241</v>
       </c>
       <c r="K2" t="n">
-        <v>151015.3255180763</v>
+        <v>151289.2537636241</v>
       </c>
       <c r="L2" t="n">
-        <v>151015.3255180763</v>
+        <v>151289.2537636241</v>
       </c>
       <c r="M2" t="n">
-        <v>151015.3255180763</v>
+        <v>151289.2537636241</v>
       </c>
       <c r="N2" t="n">
-        <v>151015.3255180763</v>
+        <v>151289.2537636241</v>
       </c>
       <c r="O2" t="n">
-        <v>151015.3255180763</v>
+        <v>151289.2537636241</v>
       </c>
       <c r="P2" t="n">
-        <v>151015.3255180763</v>
+        <v>151289.2537636241</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>337891.9184474517</v>
+        <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>8822.146289150098</v>
+        <v>5404.577564794114</v>
       </c>
       <c r="D3" t="n">
-        <v>18049.27484894845</v>
+        <v>19735.29214074451</v>
       </c>
       <c r="E3" t="n">
-        <v>66863.0894460394</v>
+        <v>76639.38691994261</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23503.26252070159</v>
+        <v>23965.70319155299</v>
       </c>
       <c r="C4" t="n">
-        <v>22718.5224152664</v>
+        <v>23588.9607456339</v>
       </c>
       <c r="D4" t="n">
-        <v>20862.58245435359</v>
+        <v>21746.066442026</v>
       </c>
       <c r="E4" t="n">
-        <v>13223.35089885325</v>
+        <v>12884.37398987268</v>
       </c>
       <c r="F4" t="n">
-        <v>13223.35089885326</v>
+        <v>12884.37398987268</v>
       </c>
       <c r="G4" t="n">
-        <v>13223.35089885325</v>
+        <v>12884.37398987268</v>
       </c>
       <c r="H4" t="n">
-        <v>13223.35089885325</v>
+        <v>12884.37398987268</v>
       </c>
       <c r="I4" t="n">
-        <v>13223.35089885325</v>
+        <v>12884.37398987268</v>
       </c>
       <c r="J4" t="n">
-        <v>13223.35089885325</v>
+        <v>12884.37398987268</v>
       </c>
       <c r="K4" t="n">
-        <v>13223.35089885325</v>
+        <v>12884.37398987268</v>
       </c>
       <c r="L4" t="n">
-        <v>13223.35089885325</v>
+        <v>12884.37398987268</v>
       </c>
       <c r="M4" t="n">
-        <v>13223.35089885325</v>
+        <v>12884.37398987268</v>
       </c>
       <c r="N4" t="n">
-        <v>13223.35089885325</v>
+        <v>12884.37398987268</v>
       </c>
       <c r="O4" t="n">
-        <v>13223.35089885325</v>
+        <v>12884.37398987268</v>
       </c>
       <c r="P4" t="n">
-        <v>13223.35089885325</v>
+        <v>12884.37398987268</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41271.79307559616</v>
+        <v>41112.97456555201</v>
       </c>
       <c r="C5" t="n">
-        <v>41482.99708031334</v>
+        <v>41242.36126897734</v>
       </c>
       <c r="D5" t="n">
-        <v>41942.44098443807</v>
+        <v>41744.72270709982</v>
       </c>
       <c r="E5" t="n">
-        <v>10129.14258640329</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="F5" t="n">
-        <v>10129.14258640329</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="G5" t="n">
-        <v>10129.14258640329</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="H5" t="n">
-        <v>10129.14258640329</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="I5" t="n">
-        <v>10129.14258640329</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="J5" t="n">
-        <v>10129.14258640329</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="K5" t="n">
-        <v>10129.14258640329</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="L5" t="n">
-        <v>10129.14258640329</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="M5" t="n">
-        <v>10129.14258640329</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="N5" t="n">
-        <v>10129.14258640329</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="O5" t="n">
-        <v>10129.14258640329</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="P5" t="n">
-        <v>10129.14258640329</v>
+        <v>10196.69999876384</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266632.7672900865</v>
+        <v>-261272.5827235648</v>
       </c>
       <c r="C6" t="n">
-        <v>64566.16720880231</v>
+        <v>65546.95075071769</v>
       </c>
       <c r="D6" t="n">
-        <v>59902.02438455362</v>
+        <v>56291.49570274197</v>
       </c>
       <c r="E6" t="n">
-        <v>60799.74258678032</v>
+        <v>51568.79285504496</v>
       </c>
       <c r="F6" t="n">
-        <v>127662.8320328197</v>
+        <v>128208.1797749876</v>
       </c>
       <c r="G6" t="n">
-        <v>127662.8320328197</v>
+        <v>128208.1797749876</v>
       </c>
       <c r="H6" t="n">
-        <v>127662.8320328198</v>
+        <v>128208.1797749876</v>
       </c>
       <c r="I6" t="n">
-        <v>127662.8320328198</v>
+        <v>128208.1797749876</v>
       </c>
       <c r="J6" t="n">
-        <v>127662.8320328198</v>
+        <v>128208.1797749876</v>
       </c>
       <c r="K6" t="n">
-        <v>127662.8320328197</v>
+        <v>128208.1797749876</v>
       </c>
       <c r="L6" t="n">
-        <v>127662.8320328197</v>
+        <v>128208.1797749876</v>
       </c>
       <c r="M6" t="n">
-        <v>127662.8320328197</v>
+        <v>128208.1797749876</v>
       </c>
       <c r="N6" t="n">
-        <v>127662.8320328198</v>
+        <v>128208.1797749876</v>
       </c>
       <c r="O6" t="n">
-        <v>127662.8320328198</v>
+        <v>128208.1797749876</v>
       </c>
       <c r="P6" t="n">
-        <v>127662.8320328197</v>
+        <v>128208.1797749876</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.6510585135856</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>360.3393156107039</v>
+        <v>349.3009756411624</v>
       </c>
       <c r="D3" t="n">
-        <v>381.4147240567924</v>
+        <v>372.3450783073314</v>
       </c>
       <c r="E3" t="n">
-        <v>464.6395681836371</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="F3" t="n">
-        <v>464.639568183637</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="G3" t="n">
-        <v>464.6395681836371</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="H3" t="n">
-        <v>464.6395681836371</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="I3" t="n">
-        <v>464.6395681836371</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="J3" t="n">
-        <v>464.6395681836371</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="K3" t="n">
-        <v>464.6395681836371</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="L3" t="n">
-        <v>464.6395681836371</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="M3" t="n">
-        <v>464.6395681836371</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="N3" t="n">
-        <v>464.6395681836371</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="O3" t="n">
-        <v>464.6395681836371</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="P3" t="n">
-        <v>464.6395681836371</v>
+        <v>467.7385320533874</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.6510585135856</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>9.688257097118278</v>
+        <v>5.935169881895838</v>
       </c>
       <c r="D3" t="n">
-        <v>21.07540844608852</v>
+        <v>23.04410266616906</v>
       </c>
       <c r="E3" t="n">
-        <v>83.22484412684469</v>
+        <v>95.39345374605597</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.409652496537027</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H2" t="n">
-        <v>14.43660363015983</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I2" t="n">
-        <v>54.34562787274376</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J2" t="n">
-        <v>119.6424935779595</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K2" t="n">
-        <v>179.3130837563719</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L2" t="n">
-        <v>222.453736347267</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M2" t="n">
-        <v>247.5226439325573</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N2" t="n">
-        <v>251.5278190883432</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O2" t="n">
-        <v>237.5105870759031</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P2" t="n">
-        <v>202.7097910676452</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.2266110354129</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R2" t="n">
-        <v>88.54908363559406</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S2" t="n">
-        <v>32.12245626483752</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T2" t="n">
-        <v>6.170753803590836</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H3" t="n">
-        <v>7.284279536291656</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I3" t="n">
-        <v>25.96802650312875</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J3" t="n">
-        <v>71.25824954189763</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K3" t="n">
-        <v>121.7916983141008</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L3" t="n">
-        <v>163.7639684124062</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M3" t="n">
-        <v>191.1048268899041</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N3" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O3" t="n">
-        <v>179.4506412376083</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P3" t="n">
-        <v>144.0249602411744</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.27687176395656</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R3" t="n">
-        <v>46.82845645583321</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S3" t="n">
-        <v>14.00950219627391</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T3" t="n">
-        <v>3.040078516735708</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04962043280852629</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6323215809261379</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H4" t="n">
-        <v>5.621913692234211</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I4" t="n">
-        <v>19.0156344518515</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J4" t="n">
-        <v>44.70513577147795</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46427094760037</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L4" t="n">
-        <v>94.00897394969145</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M4" t="n">
-        <v>99.11928199917631</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N4" t="n">
-        <v>96.76244701572442</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O4" t="n">
-        <v>89.37578127490541</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P4" t="n">
-        <v>76.47642102401214</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.94830983555142</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R4" t="n">
-        <v>28.43147762964252</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S4" t="n">
-        <v>11.01964064214005</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T4" t="n">
-        <v>2.701737663957134</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.448600263761622</v>
+        <v>1.404225027703164</v>
       </c>
       <c r="H5" t="n">
-        <v>14.83547745124872</v>
+        <v>14.38101956496503</v>
       </c>
       <c r="I5" t="n">
-        <v>55.84716166867</v>
+        <v>54.13638538052629</v>
       </c>
       <c r="J5" t="n">
-        <v>122.9481366364381</v>
+        <v>119.1818439450216</v>
       </c>
       <c r="K5" t="n">
-        <v>184.2673858014676</v>
+        <v>178.6226893676965</v>
       </c>
       <c r="L5" t="n">
-        <v>228.5999861235624</v>
+        <v>221.5972410592673</v>
       </c>
       <c r="M5" t="n">
-        <v>254.3615310642332</v>
+        <v>246.5696278956834</v>
       </c>
       <c r="N5" t="n">
-        <v>258.4773665636459</v>
+        <v>250.5593822556451</v>
       </c>
       <c r="O5" t="n">
-        <v>244.0728476908663</v>
+        <v>236.5961196364217</v>
       </c>
       <c r="P5" t="n">
-        <v>208.3105286792512</v>
+        <v>201.9293142649998</v>
       </c>
       <c r="Q5" t="n">
-        <v>156.432531733288</v>
+        <v>151.6405054603802</v>
       </c>
       <c r="R5" t="n">
-        <v>90.99563631851611</v>
+        <v>88.20815039645898</v>
       </c>
       <c r="S5" t="n">
-        <v>33.009978510468</v>
+        <v>31.99877781878589</v>
       </c>
       <c r="T5" t="n">
-        <v>6.341247654616506</v>
+        <v>6.146995058770605</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1158880211009298</v>
+        <v>0.1123380022162531</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7750694713135895</v>
+        <v>0.7513266268508021</v>
       </c>
       <c r="H6" t="n">
-        <v>7.48553936768651</v>
+        <v>7.256233475111696</v>
       </c>
       <c r="I6" t="n">
-        <v>26.68550592022666</v>
+        <v>25.8680439507842</v>
       </c>
       <c r="J6" t="n">
-        <v>73.22706790160541</v>
+        <v>70.98388977628566</v>
       </c>
       <c r="K6" t="n">
-        <v>125.1567224796159</v>
+        <v>121.3227737752894</v>
       </c>
       <c r="L6" t="n">
-        <v>168.288658672716</v>
+        <v>163.1334415010919</v>
       </c>
       <c r="M6" t="n">
-        <v>196.3849270078336</v>
+        <v>190.3690317244335</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>184.4087439050363</v>
+        <v>178.7597172226994</v>
       </c>
       <c r="P6" t="n">
-        <v>148.004274745838</v>
+        <v>143.4704328062729</v>
       </c>
       <c r="Q6" t="n">
-        <v>98.93693812767854</v>
+        <v>95.90618485906029</v>
       </c>
       <c r="R6" t="n">
-        <v>48.12229577155779</v>
+        <v>46.64815670921035</v>
       </c>
       <c r="S6" t="n">
-        <v>14.39657548689934</v>
+        <v>13.95556256453134</v>
       </c>
       <c r="T6" t="n">
-        <v>3.124073877794686</v>
+        <v>3.028373552964416</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05099141258642038</v>
+        <v>0.04942938334544753</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6497922084783183</v>
+        <v>0.629887005254555</v>
       </c>
       <c r="H7" t="n">
-        <v>5.77724345356178</v>
+        <v>5.60026810126323</v>
       </c>
       <c r="I7" t="n">
-        <v>19.54102386951162</v>
+        <v>18.94242012165517</v>
       </c>
       <c r="J7" t="n">
-        <v>45.9403091394171</v>
+        <v>44.53301127149704</v>
       </c>
       <c r="K7" t="n">
-        <v>75.49404022139007</v>
+        <v>73.18141751957465</v>
       </c>
       <c r="L7" t="n">
-        <v>96.60637979504018</v>
+        <v>93.64701894484541</v>
       </c>
       <c r="M7" t="n">
-        <v>101.857882279924</v>
+        <v>98.73765119640265</v>
       </c>
       <c r="N7" t="n">
-        <v>99.43592950286855</v>
+        <v>96.38989054045393</v>
       </c>
       <c r="O7" t="n">
-        <v>91.8451750674627</v>
+        <v>89.03166506998024</v>
       </c>
       <c r="P7" t="n">
-        <v>78.58941401450495</v>
+        <v>76.18197016278725</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.41123665721628</v>
+        <v>52.74444732181552</v>
       </c>
       <c r="R7" t="n">
-        <v>29.21702057394329</v>
+        <v>28.32201025444571</v>
       </c>
       <c r="S7" t="n">
-        <v>11.32410603320851</v>
+        <v>10.9772126279362</v>
       </c>
       <c r="T7" t="n">
-        <v>2.776384890770996</v>
+        <v>2.691335386087644</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03544321137154468</v>
+        <v>0.03435747301388486</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5333255238464</v>
+        <v>1.496864636411381</v>
       </c>
       <c r="H8" t="n">
-        <v>15.70317002109195</v>
+        <v>15.32976495764806</v>
       </c>
       <c r="I8" t="n">
-        <v>59.11353225808841</v>
+        <v>57.70787389524983</v>
       </c>
       <c r="J8" t="n">
-        <v>130.1390871795585</v>
+        <v>127.0445149346206</v>
       </c>
       <c r="K8" t="n">
-        <v>195.0447566039767</v>
+        <v>190.4067949939144</v>
       </c>
       <c r="L8" t="n">
-        <v>241.970267604391</v>
+        <v>236.2164661104893</v>
       </c>
       <c r="M8" t="n">
-        <v>269.2385453890944</v>
+        <v>262.8363325882702</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5951065337231</v>
+        <v>267.089299236474</v>
       </c>
       <c r="O8" t="n">
-        <v>258.3481008559754</v>
+        <v>252.2048515081583</v>
       </c>
       <c r="P8" t="n">
-        <v>220.4941269860173</v>
+        <v>215.2510057967523</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.5819066632681</v>
+        <v>161.6445410052697</v>
       </c>
       <c r="R8" t="n">
-        <v>96.31775943731652</v>
+        <v>94.02742321697652</v>
       </c>
       <c r="S8" t="n">
-        <v>34.94065537464989</v>
+        <v>34.10980290222439</v>
       </c>
       <c r="T8" t="n">
-        <v>6.712132480637621</v>
+        <v>6.552524945890825</v>
       </c>
       <c r="U8" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1197491709129105</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8204014819334779</v>
+        <v>0.8008931873025619</v>
       </c>
       <c r="H9" t="n">
-        <v>7.923351154462802</v>
+        <v>7.734942098422112</v>
       </c>
       <c r="I9" t="n">
-        <v>28.2462790928851</v>
+        <v>27.57461193125049</v>
       </c>
       <c r="J9" t="n">
-        <v>77.50994878214496</v>
+        <v>75.66684275300214</v>
       </c>
       <c r="K9" t="n">
-        <v>132.476848071688</v>
+        <v>129.3266863022738</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1314708908633</v>
+        <v>173.8956896377778</v>
       </c>
       <c r="M9" t="n">
-        <v>207.8710246109518</v>
+        <v>202.9280676774956</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>195.1943824142341</v>
+        <v>190.5528628579038</v>
       </c>
       <c r="P9" t="n">
-        <v>156.6607005281569</v>
+        <v>152.9354718806094</v>
       </c>
       <c r="Q9" t="n">
-        <v>104.7235295183857</v>
+        <v>102.2333128212884</v>
       </c>
       <c r="R9" t="n">
-        <v>50.93685692215052</v>
+        <v>49.72563140111873</v>
       </c>
       <c r="S9" t="n">
-        <v>15.23859770170297</v>
+        <v>14.87623968520328</v>
       </c>
       <c r="T9" t="n">
-        <v>3.306793692530114</v>
+        <v>3.228161575136202</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.05269034126990541</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6877970433811009</v>
+        <v>0.6714419444886303</v>
       </c>
       <c r="H10" t="n">
-        <v>6.115140985697429</v>
+        <v>5.969729288271645</v>
       </c>
       <c r="I10" t="n">
-        <v>20.68393290458802</v>
+        <v>20.19209047607627</v>
       </c>
       <c r="J10" t="n">
-        <v>48.62725096704384</v>
+        <v>47.47094547534616</v>
       </c>
       <c r="K10" t="n">
-        <v>79.90951104009515</v>
+        <v>78.00934591422448</v>
       </c>
       <c r="L10" t="n">
-        <v>102.2566622495866</v>
+        <v>99.82510509242783</v>
       </c>
       <c r="M10" t="n">
-        <v>107.8153129001847</v>
+        <v>105.2515768074314</v>
       </c>
       <c r="N10" t="n">
-        <v>105.2517057384916</v>
+        <v>102.748929559792</v>
       </c>
       <c r="O10" t="n">
-        <v>97.21698573172148</v>
+        <v>94.90526684462934</v>
       </c>
       <c r="P10" t="n">
-        <v>83.18592604674694</v>
+        <v>81.20785117706122</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.59362333257565</v>
+        <v>56.22410682440704</v>
       </c>
       <c r="R10" t="n">
-        <v>30.92585615057204</v>
+        <v>30.19047143127968</v>
       </c>
       <c r="S10" t="n">
-        <v>11.98642665601427</v>
+        <v>11.70140188713367</v>
       </c>
       <c r="T10" t="n">
-        <v>2.938769185355612</v>
+        <v>2.868888308269602</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03751620236624191</v>
+        <v>0.03662410606301624</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.867897761542258</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H11" t="n">
-        <v>19.12960795039466</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I11" t="n">
-        <v>72.01212845185798</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J11" t="n">
-        <v>158.5354876386974</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K11" t="n">
-        <v>237.6035998847812</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L11" t="n">
-        <v>294.7682760045802</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M11" t="n">
-        <v>327.9865028214073</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N11" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>314.7197589700534</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P11" t="n">
-        <v>268.6060329819789</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.7119443967467</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R11" t="n">
-        <v>117.334332763479</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S11" t="n">
-        <v>42.56472024114425</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T11" t="n">
-        <v>8.176722451151239</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H12" t="n">
-        <v>9.652229520192162</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I12" t="n">
-        <v>34.40962839850521</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J12" t="n">
-        <v>94.42265036078989</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K12" t="n">
-        <v>161.3833488850657</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31856,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>190.8441275431999</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.5742452114771</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R12" t="n">
-        <v>62.05129931327896</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S12" t="n">
-        <v>18.56366576658209</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T12" t="n">
-        <v>4.028337388309079</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H13" t="n">
-        <v>7.44946717514094</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I13" t="n">
-        <v>25.1971752713356</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J13" t="n">
-        <v>59.23773642236304</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K13" t="n">
-        <v>97.34579805552262</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L13" t="n">
-        <v>124.569106525823</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M13" t="n">
-        <v>131.3406569539418</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N13" t="n">
-        <v>128.2176696923798</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O13" t="n">
-        <v>118.4297705921179</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P13" t="n">
-        <v>101.3371281166411</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.1605747957292</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R13" t="n">
-        <v>37.67389023338145</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S13" t="n">
-        <v>14.60186970832839</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T13" t="n">
-        <v>3.580009787644415</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.867897761542258</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H14" t="n">
-        <v>19.12960795039466</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I14" t="n">
-        <v>72.01212845185798</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J14" t="n">
-        <v>158.5354876386974</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K14" t="n">
-        <v>237.6035998847812</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L14" t="n">
-        <v>294.7682760045802</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M14" t="n">
-        <v>327.9865028214072</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N14" t="n">
-        <v>333.2936673363892</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>314.7197589700534</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P14" t="n">
-        <v>268.6060329819788</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.7119443967467</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R14" t="n">
-        <v>117.334332763479</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S14" t="n">
-        <v>42.56472024114425</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T14" t="n">
-        <v>8.176722451151239</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9994134108100873</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H15" t="n">
-        <v>9.65222952019216</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I15" t="n">
-        <v>34.4096283985052</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J15" t="n">
-        <v>94.42265036078989</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K15" t="n">
-        <v>161.3833488850657</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32093,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>190.8441275431999</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.5742452114771</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R15" t="n">
-        <v>62.05129931327895</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S15" t="n">
-        <v>18.56366576658209</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T15" t="n">
-        <v>4.028337388309078</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8378746311508207</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H16" t="n">
-        <v>7.44946717514094</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I16" t="n">
-        <v>25.1971752713356</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J16" t="n">
-        <v>59.23773642236303</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K16" t="n">
-        <v>97.34579805552262</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L16" t="n">
-        <v>124.569106525823</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M16" t="n">
-        <v>131.3406569539418</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N16" t="n">
-        <v>128.2176696923798</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O16" t="n">
-        <v>118.4297705921179</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P16" t="n">
-        <v>101.3371281166411</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.16057479572919</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R16" t="n">
-        <v>37.67389023338145</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S16" t="n">
-        <v>14.60186970832839</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T16" t="n">
-        <v>3.580009787644415</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.867897761542258</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H17" t="n">
-        <v>19.12960795039466</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I17" t="n">
-        <v>72.01212845185798</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J17" t="n">
-        <v>158.5354876386974</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K17" t="n">
-        <v>237.6035998847812</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L17" t="n">
-        <v>294.7682760045802</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M17" t="n">
-        <v>327.9865028214073</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N17" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>314.7197589700534</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P17" t="n">
-        <v>268.6060329819789</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.7119443967467</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R17" t="n">
-        <v>117.334332763479</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S17" t="n">
-        <v>42.56472024114425</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T17" t="n">
-        <v>8.176722451151239</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H18" t="n">
-        <v>9.652229520192162</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I18" t="n">
-        <v>34.40962839850521</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J18" t="n">
-        <v>94.42265036078989</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K18" t="n">
-        <v>161.3833488850657</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32330,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>190.8441275431999</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q18" t="n">
-        <v>127.5742452114771</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R18" t="n">
-        <v>62.05129931327896</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S18" t="n">
-        <v>18.56366576658209</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T18" t="n">
-        <v>4.028337388309079</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H19" t="n">
-        <v>7.44946717514094</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I19" t="n">
-        <v>25.1971752713356</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J19" t="n">
-        <v>59.23773642236304</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K19" t="n">
-        <v>97.34579805552262</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L19" t="n">
-        <v>124.569106525823</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M19" t="n">
-        <v>131.3406569539418</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N19" t="n">
-        <v>128.2176696923798</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O19" t="n">
-        <v>118.4297705921179</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P19" t="n">
-        <v>101.3371281166411</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.1605747957292</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R19" t="n">
-        <v>37.67389023338145</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S19" t="n">
-        <v>14.60186970832839</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T19" t="n">
-        <v>3.580009787644415</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.867897761542258</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H20" t="n">
-        <v>19.12960795039466</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I20" t="n">
-        <v>72.01212845185798</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J20" t="n">
-        <v>158.5354876386974</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K20" t="n">
-        <v>237.6035998847812</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L20" t="n">
-        <v>294.7682760045802</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M20" t="n">
-        <v>327.9865028214073</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N20" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>314.7197589700534</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P20" t="n">
-        <v>268.6060329819789</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.7119443967467</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R20" t="n">
-        <v>117.334332763479</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S20" t="n">
-        <v>42.56472024114425</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T20" t="n">
-        <v>8.176722451151239</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H21" t="n">
-        <v>9.652229520192162</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I21" t="n">
-        <v>34.40962839850521</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J21" t="n">
-        <v>94.42265036078989</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K21" t="n">
-        <v>161.3833488850657</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32567,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>190.8441275431999</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.5742452114771</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R21" t="n">
-        <v>62.05129931327896</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S21" t="n">
-        <v>18.56366576658209</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T21" t="n">
-        <v>4.028337388309079</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H22" t="n">
-        <v>7.44946717514094</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I22" t="n">
-        <v>25.1971752713356</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J22" t="n">
-        <v>59.23773642236304</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K22" t="n">
-        <v>97.34579805552262</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L22" t="n">
-        <v>124.569106525823</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M22" t="n">
-        <v>131.3406569539418</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N22" t="n">
-        <v>128.2176696923798</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O22" t="n">
-        <v>118.4297705921179</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P22" t="n">
-        <v>101.3371281166411</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.1605747957292</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R22" t="n">
-        <v>37.67389023338145</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S22" t="n">
-        <v>14.60186970832839</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T22" t="n">
-        <v>3.580009787644415</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.867897761542258</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H23" t="n">
-        <v>19.12960795039466</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I23" t="n">
-        <v>72.01212845185798</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J23" t="n">
-        <v>158.5354876386974</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K23" t="n">
-        <v>237.6035998847812</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L23" t="n">
-        <v>294.7682760045802</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M23" t="n">
-        <v>327.9865028214073</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N23" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>314.7197589700534</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P23" t="n">
-        <v>268.6060329819789</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.7119443967467</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R23" t="n">
-        <v>117.334332763479</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S23" t="n">
-        <v>42.56472024114425</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T23" t="n">
-        <v>8.176722451151239</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H24" t="n">
-        <v>9.652229520192162</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I24" t="n">
-        <v>34.40962839850521</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J24" t="n">
-        <v>94.42265036078989</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K24" t="n">
-        <v>161.3833488850657</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32804,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>190.8441275431999</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.5742452114771</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R24" t="n">
-        <v>62.05129931327896</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S24" t="n">
-        <v>18.56366576658209</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T24" t="n">
-        <v>4.028337388309079</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H25" t="n">
-        <v>7.44946717514094</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I25" t="n">
-        <v>25.1971752713356</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J25" t="n">
-        <v>59.23773642236304</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K25" t="n">
-        <v>97.34579805552262</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L25" t="n">
-        <v>124.569106525823</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M25" t="n">
-        <v>131.3406569539418</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N25" t="n">
-        <v>128.2176696923798</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O25" t="n">
-        <v>118.4297705921179</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P25" t="n">
-        <v>101.3371281166411</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.1605747957292</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R25" t="n">
-        <v>37.67389023338145</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S25" t="n">
-        <v>14.60186970832839</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T25" t="n">
-        <v>3.580009787644415</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.867897761542258</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H26" t="n">
-        <v>19.12960795039466</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I26" t="n">
-        <v>72.01212845185798</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J26" t="n">
-        <v>158.5354876386974</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K26" t="n">
-        <v>237.6035998847812</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L26" t="n">
-        <v>294.7682760045802</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M26" t="n">
-        <v>327.9865028214073</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N26" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>314.7197589700534</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P26" t="n">
-        <v>268.6060329819789</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.7119443967467</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R26" t="n">
-        <v>117.334332763479</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S26" t="n">
-        <v>42.56472024114425</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T26" t="n">
-        <v>8.176722451151239</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H27" t="n">
-        <v>9.652229520192162</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I27" t="n">
-        <v>34.40962839850521</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J27" t="n">
-        <v>94.42265036078989</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K27" t="n">
-        <v>161.3833488850657</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33041,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>190.8441275431999</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q27" t="n">
-        <v>127.5742452114771</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R27" t="n">
-        <v>62.05129931327896</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S27" t="n">
-        <v>18.56366576658209</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T27" t="n">
-        <v>4.028337388309079</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H28" t="n">
-        <v>7.44946717514094</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I28" t="n">
-        <v>25.1971752713356</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J28" t="n">
-        <v>59.23773642236304</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K28" t="n">
-        <v>97.34579805552262</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L28" t="n">
-        <v>124.569106525823</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M28" t="n">
-        <v>131.3406569539418</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N28" t="n">
-        <v>128.2176696923798</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O28" t="n">
-        <v>118.4297705921179</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P28" t="n">
-        <v>101.3371281166411</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.1605747957292</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R28" t="n">
-        <v>37.67389023338145</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S28" t="n">
-        <v>14.60186970832839</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T28" t="n">
-        <v>3.580009787644415</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.867897761542258</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H29" t="n">
-        <v>19.12960795039466</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I29" t="n">
-        <v>72.01212845185798</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J29" t="n">
-        <v>158.5354876386974</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K29" t="n">
-        <v>237.6035998847812</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L29" t="n">
-        <v>294.7682760045802</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M29" t="n">
-        <v>327.9865028214073</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N29" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>314.7197589700534</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P29" t="n">
-        <v>268.6060329819789</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q29" t="n">
-        <v>201.7119443967467</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R29" t="n">
-        <v>117.334332763479</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S29" t="n">
-        <v>42.56472024114425</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T29" t="n">
-        <v>8.176722451151239</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H30" t="n">
-        <v>9.652229520192162</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I30" t="n">
-        <v>34.40962839850521</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J30" t="n">
-        <v>94.42265036078989</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K30" t="n">
-        <v>161.3833488850657</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33278,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>190.8441275431999</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.5742452114771</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R30" t="n">
-        <v>62.05129931327896</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S30" t="n">
-        <v>18.56366576658209</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T30" t="n">
-        <v>4.028337388309079</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H31" t="n">
-        <v>7.44946717514094</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I31" t="n">
-        <v>25.1971752713356</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J31" t="n">
-        <v>59.23773642236304</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K31" t="n">
-        <v>97.34579805552262</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L31" t="n">
-        <v>124.569106525823</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M31" t="n">
-        <v>131.3406569539418</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N31" t="n">
-        <v>128.2176696923798</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O31" t="n">
-        <v>118.4297705921179</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P31" t="n">
-        <v>101.3371281166411</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.1605747957292</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R31" t="n">
-        <v>37.67389023338145</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S31" t="n">
-        <v>14.60186970832839</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T31" t="n">
-        <v>3.580009787644415</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.867897761542258</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H32" t="n">
-        <v>19.12960795039466</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I32" t="n">
-        <v>72.01212845185798</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J32" t="n">
-        <v>158.5354876386974</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K32" t="n">
-        <v>237.6035998847812</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L32" t="n">
-        <v>294.7682760045802</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M32" t="n">
-        <v>327.9865028214073</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N32" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>314.7197589700534</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P32" t="n">
-        <v>268.6060329819789</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q32" t="n">
-        <v>201.7119443967467</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R32" t="n">
-        <v>117.334332763479</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S32" t="n">
-        <v>42.56472024114425</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T32" t="n">
-        <v>8.176722451151239</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H33" t="n">
-        <v>9.652229520192162</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I33" t="n">
-        <v>34.40962839850521</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J33" t="n">
-        <v>94.42265036078989</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K33" t="n">
-        <v>161.3833488850657</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33515,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>190.8441275431999</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q33" t="n">
-        <v>127.5742452114771</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R33" t="n">
-        <v>62.05129931327896</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S33" t="n">
-        <v>18.56366576658209</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T33" t="n">
-        <v>4.028337388309079</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H34" t="n">
-        <v>7.44946717514094</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I34" t="n">
-        <v>25.1971752713356</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J34" t="n">
-        <v>59.23773642236304</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K34" t="n">
-        <v>97.34579805552262</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L34" t="n">
-        <v>124.569106525823</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M34" t="n">
-        <v>131.3406569539418</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N34" t="n">
-        <v>128.2176696923798</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O34" t="n">
-        <v>118.4297705921179</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P34" t="n">
-        <v>101.3371281166411</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.1605747957292</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R34" t="n">
-        <v>37.67389023338145</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S34" t="n">
-        <v>14.60186970832839</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T34" t="n">
-        <v>3.580009787644415</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.867897761542258</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H35" t="n">
-        <v>19.12960795039466</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I35" t="n">
-        <v>72.01212845185798</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J35" t="n">
-        <v>158.5354876386974</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K35" t="n">
-        <v>237.6035998847812</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L35" t="n">
-        <v>294.7682760045802</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M35" t="n">
-        <v>327.9865028214073</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N35" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>314.7197589700534</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P35" t="n">
-        <v>268.6060329819789</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.7119443967467</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R35" t="n">
-        <v>117.334332763479</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S35" t="n">
-        <v>42.56472024114425</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T35" t="n">
-        <v>8.176722451151239</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H36" t="n">
-        <v>9.652229520192162</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I36" t="n">
-        <v>34.40962839850521</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J36" t="n">
-        <v>94.42265036078989</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K36" t="n">
-        <v>161.3833488850657</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33752,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>190.8441275431999</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q36" t="n">
-        <v>127.5742452114771</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R36" t="n">
-        <v>62.05129931327896</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S36" t="n">
-        <v>18.56366576658209</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T36" t="n">
-        <v>4.028337388309079</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H37" t="n">
-        <v>7.44946717514094</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I37" t="n">
-        <v>25.1971752713356</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J37" t="n">
-        <v>59.23773642236304</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K37" t="n">
-        <v>97.34579805552262</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L37" t="n">
-        <v>124.569106525823</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M37" t="n">
-        <v>131.3406569539418</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N37" t="n">
-        <v>128.2176696923798</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O37" t="n">
-        <v>118.4297705921179</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P37" t="n">
-        <v>101.3371281166411</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.1605747957292</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R37" t="n">
-        <v>37.67389023338145</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S37" t="n">
-        <v>14.60186970832839</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T37" t="n">
-        <v>3.580009787644415</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.867897761542258</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H38" t="n">
-        <v>19.12960795039466</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I38" t="n">
-        <v>72.01212845185798</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J38" t="n">
-        <v>158.5354876386974</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K38" t="n">
-        <v>237.6035998847812</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L38" t="n">
-        <v>294.7682760045802</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M38" t="n">
-        <v>327.9865028214073</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N38" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>314.7197589700534</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P38" t="n">
-        <v>268.6060329819789</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.7119443967467</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R38" t="n">
-        <v>117.334332763479</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S38" t="n">
-        <v>42.56472024114425</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T38" t="n">
-        <v>8.176722451151239</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H39" t="n">
-        <v>9.652229520192162</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I39" t="n">
-        <v>34.40962839850521</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J39" t="n">
-        <v>94.42265036078989</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K39" t="n">
-        <v>161.3833488850657</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33989,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>190.8441275431999</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.5742452114771</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R39" t="n">
-        <v>62.05129931327896</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S39" t="n">
-        <v>18.56366576658209</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T39" t="n">
-        <v>4.028337388309079</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H40" t="n">
-        <v>7.44946717514094</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I40" t="n">
-        <v>25.1971752713356</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J40" t="n">
-        <v>59.23773642236304</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K40" t="n">
-        <v>97.34579805552262</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L40" t="n">
-        <v>124.569106525823</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M40" t="n">
-        <v>131.3406569539418</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N40" t="n">
-        <v>128.2176696923798</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O40" t="n">
-        <v>118.4297705921179</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P40" t="n">
-        <v>101.3371281166411</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.1605747957292</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R40" t="n">
-        <v>37.67389023338145</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S40" t="n">
-        <v>14.60186970832839</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T40" t="n">
-        <v>3.580009787644415</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.867897761542258</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H41" t="n">
-        <v>19.12960795039466</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I41" t="n">
-        <v>72.01212845185798</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J41" t="n">
-        <v>158.5354876386974</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K41" t="n">
-        <v>237.6035998847812</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L41" t="n">
-        <v>294.7682760045802</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M41" t="n">
-        <v>327.9865028214073</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N41" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>314.7197589700534</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P41" t="n">
-        <v>268.6060329819789</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.7119443967467</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R41" t="n">
-        <v>117.334332763479</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S41" t="n">
-        <v>42.56472024114425</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T41" t="n">
-        <v>8.176722451151239</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H42" t="n">
-        <v>9.652229520192162</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I42" t="n">
-        <v>34.40962839850521</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J42" t="n">
-        <v>94.42265036078989</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K42" t="n">
-        <v>161.3833488850657</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34226,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>190.8441275431999</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q42" t="n">
-        <v>127.5742452114771</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R42" t="n">
-        <v>62.05129931327896</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S42" t="n">
-        <v>18.56366576658209</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T42" t="n">
-        <v>4.028337388309079</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H43" t="n">
-        <v>7.44946717514094</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I43" t="n">
-        <v>25.1971752713356</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J43" t="n">
-        <v>59.23773642236304</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K43" t="n">
-        <v>97.34579805552262</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L43" t="n">
-        <v>124.569106525823</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M43" t="n">
-        <v>131.3406569539418</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N43" t="n">
-        <v>128.2176696923798</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O43" t="n">
-        <v>118.4297705921179</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P43" t="n">
-        <v>101.3371281166411</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.1605747957292</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R43" t="n">
-        <v>37.67389023338145</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S43" t="n">
-        <v>14.60186970832839</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T43" t="n">
-        <v>3.580009787644415</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.867897761542258</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H44" t="n">
-        <v>19.12960795039466</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I44" t="n">
-        <v>72.01212845185798</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J44" t="n">
-        <v>158.5354876386974</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K44" t="n">
-        <v>237.6035998847812</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L44" t="n">
-        <v>294.7682760045802</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M44" t="n">
-        <v>327.9865028214073</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N44" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>314.7197589700534</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P44" t="n">
-        <v>268.6060329819789</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7119443967467</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R44" t="n">
-        <v>117.334332763479</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S44" t="n">
-        <v>42.56472024114425</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T44" t="n">
-        <v>8.176722451151239</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H45" t="n">
-        <v>9.652229520192162</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I45" t="n">
-        <v>34.40962839850521</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J45" t="n">
-        <v>94.42265036078989</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K45" t="n">
-        <v>161.3833488850657</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34463,22 +34465,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>190.8441275431999</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q45" t="n">
-        <v>127.5742452114771</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R45" t="n">
-        <v>62.05129931327896</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S45" t="n">
-        <v>18.56366576658209</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T45" t="n">
-        <v>4.028337388309079</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H46" t="n">
-        <v>7.44946717514094</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I46" t="n">
-        <v>25.1971752713356</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J46" t="n">
-        <v>59.23773642236304</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K46" t="n">
-        <v>97.34579805552262</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L46" t="n">
-        <v>124.569106525823</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M46" t="n">
-        <v>131.3406569539418</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N46" t="n">
-        <v>128.2176696923798</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O46" t="n">
-        <v>118.4297705921179</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P46" t="n">
-        <v>101.3371281166411</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.1605747957292</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R46" t="n">
-        <v>37.67389023338145</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S46" t="n">
-        <v>14.60186970832839</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T46" t="n">
-        <v>3.580009787644415</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_13_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_13_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>541182.7465803222</v>
+        <v>405757.0368839859</v>
       </c>
     </row>
     <row r="7">
@@ -8461,13 +8461,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>74.04503350661616</v>
+        <v>74.04503350661622</v>
       </c>
       <c r="N8" t="n">
         <v>68.42730627354024</v>
       </c>
       <c r="O8" t="n">
-        <v>84.31378269605855</v>
+        <v>84.31378269605858</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -23144,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>47.86993696819728</v>
+        <v>47.86993696819729</v>
       </c>
       <c r="R9" t="n">
         <v>151.4950089952352</v>
@@ -23211,10 +23211,10 @@
         <v>55.200311568079</v>
       </c>
       <c r="M10" t="n">
-        <v>51.51487037948513</v>
+        <v>51.51487037948515</v>
       </c>
       <c r="N10" t="n">
-        <v>39.31857284105145</v>
+        <v>39.31857284105146</v>
       </c>
       <c r="O10" t="n">
         <v>65.19658738606127</v>
@@ -26368,10 +26368,10 @@
         <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>5404.577564794114</v>
+        <v>5404.577564794182</v>
       </c>
       <c r="D3" t="n">
-        <v>19735.29214074451</v>
+        <v>19735.29214074444</v>
       </c>
       <c r="E3" t="n">
         <v>76639.38691994261</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-261272.5827235648</v>
+        <v>-278004.4111943819</v>
       </c>
       <c r="C6" t="n">
-        <v>65546.95075071769</v>
+        <v>48873.2802331362</v>
       </c>
       <c r="D6" t="n">
-        <v>56291.49570274197</v>
+        <v>39814.38974634428</v>
       </c>
       <c r="E6" t="n">
-        <v>51568.79285504496</v>
+        <v>35711.24883396358</v>
       </c>
       <c r="F6" t="n">
-        <v>128208.1797749876</v>
+        <v>112350.6357539062</v>
       </c>
       <c r="G6" t="n">
-        <v>128208.1797749876</v>
+        <v>112350.6357539062</v>
       </c>
       <c r="H6" t="n">
-        <v>128208.1797749876</v>
+        <v>112350.6357539062</v>
       </c>
       <c r="I6" t="n">
-        <v>128208.1797749876</v>
+        <v>112350.6357539062</v>
       </c>
       <c r="J6" t="n">
-        <v>128208.1797749876</v>
+        <v>112350.6357539062</v>
       </c>
       <c r="K6" t="n">
-        <v>128208.1797749876</v>
+        <v>112350.6357539062</v>
       </c>
       <c r="L6" t="n">
-        <v>128208.1797749876</v>
+        <v>112350.6357539062</v>
       </c>
       <c r="M6" t="n">
-        <v>128208.1797749876</v>
+        <v>112350.6357539062</v>
       </c>
       <c r="N6" t="n">
-        <v>128208.1797749876</v>
+        <v>112350.6357539062</v>
       </c>
       <c r="O6" t="n">
-        <v>128208.1797749876</v>
+        <v>112350.6357539062</v>
       </c>
       <c r="P6" t="n">
-        <v>128208.1797749876</v>
+        <v>112350.6357539062</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>5.935169881895838</v>
+        <v>5.935169881895913</v>
       </c>
       <c r="D3" t="n">
-        <v>23.04410266616906</v>
+        <v>23.04410266616899</v>
       </c>
       <c r="E3" t="n">
         <v>95.39345374605597</v>
@@ -31533,7 +31533,7 @@
         <v>236.2164661104893</v>
       </c>
       <c r="M8" t="n">
-        <v>262.8363325882702</v>
+        <v>262.8363325882701</v>
       </c>
       <c r="N8" t="n">
         <v>267.089299236474</v>
@@ -31554,7 +31554,7 @@
         <v>34.10980290222439</v>
       </c>
       <c r="T8" t="n">
-        <v>6.552524945890825</v>
+        <v>6.552524945890824</v>
       </c>
       <c r="U8" t="n">
         <v>0.1197491709129105</v>
@@ -31676,7 +31676,7 @@
         <v>0.6714419444886303</v>
       </c>
       <c r="H10" t="n">
-        <v>5.969729288271645</v>
+        <v>5.969729288271644</v>
       </c>
       <c r="I10" t="n">
         <v>20.19209047607627</v>
